--- a/docs/UCB_Densimeter_fitting/Input_files/merged_df_wrho-6-7-23.xlsx
+++ b/docs/UCB_Densimeter_fitting/Input_files/merged_df_wrho-6-7-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\Box\Berkeley_new\DiadFit_outer\docs\UCB_Densimeter_fitting\Input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC682C34-5E8F-4A85-8F7A-9FC44EF25DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3799FC48-1067-4951-963E-28EC7C1FF73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="316">
   <si>
     <t>Label</t>
   </si>
@@ -978,6 +978,9 @@
   </si>
   <si>
     <t>1220_1400_new</t>
+  </si>
+  <si>
+    <t>1117_1400_new</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CL59"/>
+  <dimension ref="A1:CM59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="CL2" sqref="CL2:CL59"/>
+      <selection activeCell="CM2" sqref="CM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1366,7 +1369,7 @@
     <col min="61" max="61" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1634,8 +1637,11 @@
       <c r="CL1" s="3" t="s">
         <v>314</v>
       </c>
+      <c r="CM1" s="3" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1889,8 +1895,11 @@
       <c r="CL2">
         <v>1.0026028408185099</v>
       </c>
+      <c r="CM2">
+        <v>0.997335668580562</v>
+      </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2129,8 +2138,11 @@
       <c r="CL3">
         <v>1.0026023012496299</v>
       </c>
+      <c r="CM3">
+        <v>0.99733510779404499</v>
+      </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2369,8 +2381,11 @@
       <c r="CL4">
         <v>1.0026017728736101</v>
       </c>
+      <c r="CM4">
+        <v>0.99733455889208</v>
+      </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2624,8 +2639,11 @@
       <c r="CL5">
         <v>1.0025941251233299</v>
       </c>
+      <c r="CM5">
+        <v>0.99732664382428804</v>
+      </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2864,8 +2882,11 @@
       <c r="CL6">
         <v>1.0025935608302201</v>
       </c>
+      <c r="CM6">
+        <v>0.99732606216827402</v>
+      </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3104,8 +3125,11 @@
       <c r="CL7">
         <v>1.00259293974964</v>
       </c>
+      <c r="CM7">
+        <v>0.99732542237979405</v>
+      </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3359,8 +3383,11 @@
       <c r="CL8">
         <v>1.0025908037917199</v>
       </c>
+      <c r="CM8">
+        <v>0.997323225393007</v>
+      </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3599,8 +3626,11 @@
       <c r="CL9">
         <v>1.0025902468593499</v>
       </c>
+      <c r="CM9">
+        <v>0.99732265341488802</v>
+      </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3839,8 +3869,11 @@
       <c r="CL10">
         <v>1.0025897834420401</v>
       </c>
+      <c r="CM10">
+        <v>0.99732217775908805</v>
+      </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4094,8 +4127,11 @@
       <c r="CL11">
         <v>1.0025875999571701</v>
       </c>
+      <c r="CM11">
+        <v>0.99731994014295</v>
+      </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4334,8 +4370,11 @@
       <c r="CL12">
         <v>1.00258714745573</v>
       </c>
+      <c r="CM12">
+        <v>0.99731947717325298</v>
+      </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4574,8 +4613,11 @@
       <c r="CL13">
         <v>1.0025866326286199</v>
       </c>
+      <c r="CM13">
+        <v>0.99731895075822896</v>
+      </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4829,8 +4871,11 @@
       <c r="CL14">
         <v>1.00258488176335</v>
       </c>
+      <c r="CM14">
+        <v>0.99731716311690399</v>
+      </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5069,8 +5114,11 @@
       <c r="CL15">
         <v>1.00258440932393</v>
       </c>
+      <c r="CM15">
+        <v>0.99731668146973895</v>
+      </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5309,8 +5357,11 @@
       <c r="CL16">
         <v>1.00258392341891</v>
       </c>
+      <c r="CM16">
+        <v>0.99731618642019204</v>
+      </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5564,8 +5615,11 @@
       <c r="CL17">
         <v>1.0025821104193</v>
       </c>
+      <c r="CM17">
+        <v>0.99731434229669702</v>
+      </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5804,8 +5858,11 @@
       <c r="CL18">
         <v>1.0025813609463801</v>
       </c>
+      <c r="CM18">
+        <v>0.99731358138111004</v>
+      </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6044,8 +6101,11 @@
       <c r="CL19">
         <v>1.0025808746231599</v>
       </c>
+      <c r="CM19">
+        <v>0.99731308809246699</v>
+      </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6299,8 +6359,11 @@
       <c r="CL20">
         <v>1.0025785539791701</v>
       </c>
+      <c r="CM20">
+        <v>0.99731073938312897</v>
+      </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6539,8 +6602,11 @@
       <c r="CL21">
         <v>1.0025780968097899</v>
       </c>
+      <c r="CM21">
+        <v>0.99731027772928305</v>
+      </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6779,8 +6845,11 @@
       <c r="CL22">
         <v>1.0025774592093999</v>
       </c>
+      <c r="CM22">
+        <v>0.99730963447052201</v>
+      </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7034,8 +7103,11 @@
       <c r="CL23">
         <v>1.0025751817539801</v>
       </c>
+      <c r="CM23">
+        <v>0.99730734269445498</v>
+      </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7274,8 +7346,11 @@
       <c r="CL24">
         <v>1.0025747844402</v>
       </c>
+      <c r="CM24">
+        <v>0.99730694386223295</v>
+      </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -7514,8 +7589,11 @@
       <c r="CL25">
         <v>1.0025743326847001</v>
       </c>
+      <c r="CM25">
+        <v>0.99730649074718203</v>
+      </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -7769,8 +7847,11 @@
       <c r="CL26">
         <v>1.0025732279972599</v>
       </c>
+      <c r="CM26">
+        <v>0.99730538441975602</v>
+      </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8009,8 +8090,11 @@
       <c r="CL27">
         <v>1.0025727917217999</v>
       </c>
+      <c r="CM27">
+        <v>0.99730494817168003</v>
+      </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8249,8 +8333,11 @@
       <c r="CL28">
         <v>1.0025723853183099</v>
       </c>
+      <c r="CM28">
+        <v>0.99730454214607001</v>
+      </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8504,8 +8591,11 @@
       <c r="CL29">
         <v>1.00256658572347</v>
       </c>
+      <c r="CM29">
+        <v>0.99729878843175601</v>
+      </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8759,8 +8849,11 @@
       <c r="CL30">
         <v>1.0025646430034401</v>
       </c>
+      <c r="CM30">
+        <v>0.997296880057988</v>
+      </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9014,8 +9107,11 @@
       <c r="CL31">
         <v>1.0025626156631899</v>
       </c>
+      <c r="CM31">
+        <v>0.99729490030429402</v>
+      </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9269,8 +9365,11 @@
       <c r="CL32">
         <v>1.00256073658752</v>
       </c>
+      <c r="CM32">
+        <v>0.99729307713079796</v>
+      </c>
     </row>
-    <row r="33" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9524,8 +9623,11 @@
       <c r="CL33">
         <v>1.0025586422881201</v>
       </c>
+      <c r="CM33">
+        <v>0.99729106000397705</v>
+      </c>
     </row>
-    <row r="34" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9767,8 +9869,11 @@
       <c r="CL34">
         <v>1.00255728864642</v>
       </c>
+      <c r="CM34">
+        <v>0.99728976546127002</v>
+      </c>
     </row>
-    <row r="35" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10010,8 +10115,11 @@
       <c r="CL35">
         <v>1.00255526076321</v>
       </c>
+      <c r="CM35">
+        <v>0.99728784124992798</v>
+      </c>
     </row>
-    <row r="36" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10265,8 +10373,11 @@
       <c r="CL36">
         <v>1.00255339618046</v>
       </c>
+      <c r="CM36">
+        <v>0.99728608996956403</v>
+      </c>
     </row>
-    <row r="37" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -10520,8 +10631,11 @@
       <c r="CL37">
         <v>1.0025505070807701</v>
       </c>
+      <c r="CM37">
+        <v>0.99728341653441299</v>
+      </c>
     </row>
-    <row r="38" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10775,8 +10889,11 @@
       <c r="CL38">
         <v>1.00254798470419</v>
       </c>
+      <c r="CM38">
+        <v>0.99728113109618999</v>
+      </c>
     </row>
-    <row r="39" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11030,8 +11147,11 @@
       <c r="CL39">
         <v>1.0025471091445901</v>
       </c>
+      <c r="CM39">
+        <v>0.99728035059815601</v>
+      </c>
     </row>
-    <row r="40" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11285,8 +11405,11 @@
       <c r="CL40">
         <v>1.00254613014869</v>
       </c>
+      <c r="CM40">
+        <v>0.997279486963904</v>
+      </c>
     </row>
-    <row r="41" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11525,8 +11648,11 @@
       <c r="CL41">
         <v>1.0025458442350099</v>
       </c>
+      <c r="CM41">
+        <v>0.99727923669654905</v>
+      </c>
     </row>
-    <row r="42" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11765,8 +11891,11 @@
       <c r="CL42">
         <v>1.00254558079759</v>
       </c>
+      <c r="CM42">
+        <v>0.99727900693308802</v>
+      </c>
     </row>
-    <row r="43" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12020,8 +12149,11 @@
       <c r="CL43">
         <v>1.0025445807937801</v>
       </c>
+      <c r="CM43">
+        <v>0.99727814247688096</v>
+      </c>
     </row>
-    <row r="44" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12266,8 +12398,11 @@
       <c r="CL44">
         <v>1.0025436797864899</v>
       </c>
+      <c r="CM44">
+        <v>0.99727737509604097</v>
+      </c>
     </row>
-    <row r="45" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -12521,8 +12656,11 @@
       <c r="CL45">
         <v>1.00254232393053</v>
       </c>
+      <c r="CM45">
+        <v>0.99727624425313699</v>
+      </c>
     </row>
-    <row r="46" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -12776,8 +12914,11 @@
       <c r="CL46">
         <v>1.00254166239267</v>
       </c>
+      <c r="CM46">
+        <v>0.997275704620602</v>
+      </c>
     </row>
-    <row r="47" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13016,8 +13157,11 @@
       <c r="CL47">
         <v>1.0025414254942</v>
       </c>
+      <c r="CM47">
+        <v>0.99727551356421096</v>
+      </c>
     </row>
-    <row r="48" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13259,8 +13403,11 @@
       <c r="CL48">
         <v>1.00254123222114</v>
       </c>
+      <c r="CM48">
+        <v>0.99727535860291405</v>
+      </c>
     </row>
-    <row r="49" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13514,8 +13661,11 @@
       <c r="CL49">
         <v>1.00254057106655</v>
       </c>
+      <c r="CM49">
+        <v>0.99727483514434001</v>
+      </c>
     </row>
-    <row r="50" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13769,8 +13919,11 @@
       <c r="CL50">
         <v>1.0025398763575699</v>
       </c>
+      <c r="CM50">
+        <v>0.99727429740612095</v>
+      </c>
     </row>
-    <row r="51" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -14024,8 +14177,11 @@
       <c r="CL51">
         <v>1.0025392057047899</v>
       </c>
+      <c r="CM51">
+        <v>0.99727379211918399</v>
+      </c>
     </row>
-    <row r="52" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -14279,8 +14435,11 @@
       <c r="CL52">
         <v>1.0025375194728601</v>
       </c>
+      <c r="CM52">
+        <v>0.997272599758109</v>
+      </c>
     </row>
-    <row r="53" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -14522,8 +14681,11 @@
       <c r="CL53">
         <v>1.0025373781159601</v>
       </c>
+      <c r="CM53">
+        <v>0.99727250625571595</v>
+      </c>
     </row>
-    <row r="54" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -14765,8 +14927,11 @@
       <c r="CL54">
         <v>1.0025372500955001</v>
       </c>
+      <c r="CM54">
+        <v>0.9972724226352</v>
+      </c>
     </row>
-    <row r="55" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -14993,8 +15158,11 @@
       <c r="CL55">
         <v>1.0025359885068601</v>
       </c>
+      <c r="CM55">
+        <v>0.99727166536177703</v>
+      </c>
     </row>
-    <row r="56" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -15221,8 +15389,11 @@
       <c r="CL56">
         <v>1.0025352171782</v>
       </c>
+      <c r="CM56">
+        <v>0.99727128798813303</v>
+      </c>
     </row>
-    <row r="57" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -15449,8 +15620,11 @@
       <c r="CL57">
         <v>1.0025341903785201</v>
       </c>
+      <c r="CM57">
+        <v>0.99727098895161004</v>
+      </c>
     </row>
-    <row r="58" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -15665,8 +15839,11 @@
       <c r="CL58">
         <v>1.0025341123395</v>
       </c>
+      <c r="CM58">
+        <v>0.99727098364046995</v>
+      </c>
     </row>
-    <row r="59" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -15880,6 +16057,9 @@
       </c>
       <c r="CL59">
         <v>1.00253402918839</v>
+      </c>
+      <c r="CM59">
+        <v>0.99727098249939805</v>
       </c>
     </row>
   </sheetData>

--- a/docs/UCB_Densimeter_fitting/Input_files/merged_df_wrho-6-7-23.xlsx
+++ b/docs/UCB_Densimeter_fitting/Input_files/merged_df_wrho-6-7-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\Box\Berkeley_new\DiadFit_outer\docs\UCB_Densimeter_fitting\Input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3799FC48-1067-4951-963E-28EC7C1FF73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6138454-4F0F-4F23-BF26-884962D87DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="321">
   <si>
     <t>Label</t>
   </si>
@@ -981,6 +981,21 @@
   </si>
   <si>
     <t>1117_1400_new</t>
+  </si>
+  <si>
+    <t>Ne_corr_1447_1117</t>
+  </si>
+  <si>
+    <t>Ne_corr_1400_1117</t>
+  </si>
+  <si>
+    <t>Ne_corr_1447_1220</t>
+  </si>
+  <si>
+    <t>Ne_corr_1400_1220</t>
+  </si>
+  <si>
+    <t>Ne_corr_1567_1220</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1030,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1038,11 +1053,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1054,6 +1078,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1358,18 +1386,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CM59"/>
+  <dimension ref="A1:CR59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="CM2" sqref="CM2"/>
+    <sheetView tabSelected="1" topLeftCell="BZ50" workbookViewId="0">
+      <selection activeCell="CN1" sqref="CN1:CR59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="61" max="61" width="27" customWidth="1"/>
+    <col min="92" max="92" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:96" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1640,8 +1669,23 @@
       <c r="CM1" s="3" t="s">
         <v>315</v>
       </c>
+      <c r="CN1" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="CO1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="CQ1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="CR1" s="3" t="s">
+        <v>320</v>
+      </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1898,8 +1942,23 @@
       <c r="CM2">
         <v>0.997335668580562</v>
       </c>
+      <c r="CN2" s="6">
+        <v>0.99759485965985195</v>
+      </c>
+      <c r="CO2">
+        <v>0.99735043287020697</v>
+      </c>
+      <c r="CP2">
+        <v>0.99718284869521301</v>
+      </c>
+      <c r="CQ2">
+        <v>0.99668671240968398</v>
+      </c>
+      <c r="CR2">
+        <v>0.99843266080364601</v>
+      </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2141,8 +2200,23 @@
       <c r="CM3">
         <v>0.99733510779404499</v>
       </c>
+      <c r="CN3" s="6">
+        <v>0.99759440763607898</v>
+      </c>
+      <c r="CO3">
+        <v>0.99734977666837699</v>
+      </c>
+      <c r="CP3">
+        <v>0.99718239745984205</v>
+      </c>
+      <c r="CQ3">
+        <v>0.99668627516673902</v>
+      </c>
+      <c r="CR3">
+        <v>0.99843221941777105</v>
+      </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2384,8 +2458,23 @@
       <c r="CM4">
         <v>0.99733455889208</v>
       </c>
+      <c r="CN4" s="6">
+        <v>0.99759396496957098</v>
+      </c>
+      <c r="CO4">
+        <v>0.99734913397819602</v>
+      </c>
+      <c r="CP4">
+        <v>0.99718195548882504</v>
+      </c>
+      <c r="CQ4">
+        <v>0.99668584652034697</v>
+      </c>
+      <c r="CR4">
+        <v>0.99843178416620404</v>
+      </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2642,8 +2731,23 @@
       <c r="CM5">
         <v>0.99732664382428804</v>
       </c>
+      <c r="CN5" s="6">
+        <v>0.997587555469579</v>
+      </c>
+      <c r="CO5">
+        <v>0.99733982666066701</v>
+      </c>
+      <c r="CP5">
+        <v>0.99717554699308197</v>
+      </c>
+      <c r="CQ5">
+        <v>0.99667958619496899</v>
+      </c>
+      <c r="CR5">
+        <v>0.99842515059280601</v>
+      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2885,8 +2989,23 @@
       <c r="CM6">
         <v>0.99732606216827402</v>
       </c>
+      <c r="CN6" s="6">
+        <v>0.99758708235781801</v>
+      </c>
+      <c r="CO6">
+        <v>0.99733914005817903</v>
+      </c>
+      <c r="CP6">
+        <v>0.997175073236784</v>
+      </c>
+      <c r="CQ6">
+        <v>0.996679119827521</v>
+      </c>
+      <c r="CR6">
+        <v>0.99842463652569002</v>
+      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3128,8 +3247,23 @@
       <c r="CM7">
         <v>0.99732542237979405</v>
       </c>
+      <c r="CN7" s="6">
+        <v>0.99758656160331005</v>
+      </c>
+      <c r="CO7">
+        <v>0.99733838447390799</v>
+      </c>
+      <c r="CP7">
+        <v>0.99717455165043101</v>
+      </c>
+      <c r="CQ7">
+        <v>0.99667860576974898</v>
+      </c>
+      <c r="CR7">
+        <v>0.99842406684421703</v>
+      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3386,8 +3520,23 @@
       <c r="CM8">
         <v>0.997323225393007</v>
       </c>
+      <c r="CN8" s="6">
+        <v>0.99758477041946203</v>
+      </c>
+      <c r="CO8">
+        <v>0.99733578717234905</v>
+      </c>
+      <c r="CP8">
+        <v>0.99717275659857196</v>
+      </c>
+      <c r="CQ8">
+        <v>0.99667683164233001</v>
+      </c>
+      <c r="CR8">
+        <v>0.99842207672131</v>
+      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3629,8 +3778,23 @@
       <c r="CM9">
         <v>0.99732265341488802</v>
       </c>
+      <c r="CN9" s="6">
+        <v>0.99758430331651005</v>
+      </c>
+      <c r="CO9">
+        <v>0.99733511034508904</v>
+      </c>
+      <c r="CP9">
+        <v>0.99717228822320303</v>
+      </c>
+      <c r="CQ9">
+        <v>0.99667636742155497</v>
+      </c>
+      <c r="CR9">
+        <v>0.99842154996922095</v>
+      </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3872,8 +4036,23 @@
       <c r="CM10">
         <v>0.99732217775908805</v>
       </c>
+      <c r="CN10" s="6">
+        <v>0.99758391462343998</v>
+      </c>
+      <c r="CO10">
+        <v>0.99733454731592197</v>
+      </c>
+      <c r="CP10">
+        <v>0.99717189838587394</v>
+      </c>
+      <c r="CQ10">
+        <v>0.99667598061960805</v>
+      </c>
+      <c r="CR10">
+        <v>0.99842110920205895</v>
+      </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4130,8 +4309,23 @@
       <c r="CM11">
         <v>0.99731994014295</v>
       </c>
+      <c r="CN11" s="6">
+        <v>0.99758208294234396</v>
+      </c>
+      <c r="CO11">
+        <v>0.99733189668979705</v>
+      </c>
+      <c r="CP11">
+        <v>0.99717006023816301</v>
+      </c>
+      <c r="CQ11">
+        <v>0.99667415147126603</v>
+      </c>
+      <c r="CR11">
+        <v>0.998419002493517</v>
+      </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4373,8 +4567,23 @@
       <c r="CM12">
         <v>0.99731947717325298</v>
       </c>
+      <c r="CN12" s="6">
+        <v>0.99758170328978701</v>
+      </c>
+      <c r="CO12">
+        <v>0.99733134790631195</v>
+      </c>
+      <c r="CP12">
+        <v>0.99716967901727604</v>
+      </c>
+      <c r="CQ12">
+        <v>0.99667377099001397</v>
+      </c>
+      <c r="CR12">
+        <v>0.99841855975685101</v>
+      </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4616,8 +4825,23 @@
       <c r="CM13">
         <v>0.99731895075822896</v>
       </c>
+      <c r="CN13" s="6">
+        <v>0.99758127132041097</v>
+      </c>
+      <c r="CO13">
+        <v>0.99733072378854004</v>
+      </c>
+      <c r="CP13">
+        <v>0.99716924516549399</v>
+      </c>
+      <c r="CQ13">
+        <v>0.99667333749615195</v>
+      </c>
+      <c r="CR13">
+        <v>0.99841805348903101</v>
+      </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4874,8 +5098,23 @@
       <c r="CM14">
         <v>0.99731716311690399</v>
       </c>
+      <c r="CN14" s="6">
+        <v>0.99757980203965801</v>
+      </c>
+      <c r="CO14">
+        <v>0.99732860349276697</v>
+      </c>
+      <c r="CP14">
+        <v>0.99716776868154899</v>
+      </c>
+      <c r="CQ14">
+        <v>0.996671858277551</v>
+      </c>
+      <c r="CR14">
+        <v>0.99841631153861599</v>
+      </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5117,8 +5356,23 @@
       <c r="CM15">
         <v>0.99731668146973895</v>
       </c>
+      <c r="CN15" s="6">
+        <v>0.99757940552510604</v>
+      </c>
+      <c r="CO15">
+        <v>0.997328032032746</v>
+      </c>
+      <c r="CP15">
+        <v>0.997167370005554</v>
+      </c>
+      <c r="CQ15">
+        <v>0.99667145778960398</v>
+      </c>
+      <c r="CR15">
+        <v>0.99841583619257201</v>
+      </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5360,8 +5614,23 @@
       <c r="CM16">
         <v>0.99731618642019204</v>
       </c>
+      <c r="CN16" s="6">
+        <v>0.99757899768367397</v>
+      </c>
+      <c r="CO16">
+        <v>0.99732744460960798</v>
+      </c>
+      <c r="CP16">
+        <v>0.99716695984196002</v>
+      </c>
+      <c r="CQ16">
+        <v>0.99667104527364603</v>
+      </c>
+      <c r="CR16">
+        <v>0.99841534495961204</v>
+      </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5618,8 +5887,23 @@
       <c r="CM17">
         <v>0.99731434229669702</v>
       </c>
+      <c r="CN17" s="6">
+        <v>0.99757747572049804</v>
+      </c>
+      <c r="CO17">
+        <v>0.99732525603308897</v>
+      </c>
+      <c r="CP17">
+        <v>0.99716542830255095</v>
+      </c>
+      <c r="CQ17">
+        <v>0.99666950046043101</v>
+      </c>
+      <c r="CR17">
+        <v>0.99841349131847401</v>
+      </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5861,8 +6145,23 @@
       <c r="CM18">
         <v>0.99731358138111004</v>
       </c>
+      <c r="CN18" s="6">
+        <v>0.99757684644798195</v>
+      </c>
+      <c r="CO18">
+        <v>0.99732435293730803</v>
+      </c>
+      <c r="CP18">
+        <v>0.99716479463807295</v>
+      </c>
+      <c r="CQ18">
+        <v>0.99666885917208703</v>
+      </c>
+      <c r="CR18">
+        <v>0.99841271557072597</v>
+      </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6104,8 +6403,23 @@
       <c r="CM19">
         <v>0.99731308809246699</v>
       </c>
+      <c r="CN19" s="6">
+        <v>0.997576438085503</v>
+      </c>
+      <c r="CO19">
+        <v>0.997323767494667</v>
+      </c>
+      <c r="CP19">
+        <v>0.99716438328583501</v>
+      </c>
+      <c r="CQ19">
+        <v>0.99666844218303996</v>
+      </c>
+      <c r="CR19">
+        <v>0.99841220926476004</v>
+      </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6362,8 +6676,23 @@
       <c r="CM20">
         <v>0.99731073938312897</v>
       </c>
+      <c r="CN20" s="6">
+        <v>0.99757448905357105</v>
+      </c>
+      <c r="CO20">
+        <v>0.99732098070673003</v>
+      </c>
+      <c r="CP20">
+        <v>0.997162418413156</v>
+      </c>
+      <c r="CQ20">
+        <v>0.99666644264946103</v>
+      </c>
+      <c r="CR20">
+        <v>0.99840976192305997</v>
+      </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6605,8 +6934,23 @@
       <c r="CM21">
         <v>0.99731027772928305</v>
       </c>
+      <c r="CN21" s="6">
+        <v>0.997574105010963</v>
+      </c>
+      <c r="CO21">
+        <v>0.99732043317547503</v>
+      </c>
+      <c r="CP21">
+        <v>0.99716203093203004</v>
+      </c>
+      <c r="CQ21">
+        <v>0.99666604677250303</v>
+      </c>
+      <c r="CR21">
+        <v>0.99840927377160305</v>
+      </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6848,8 +7192,23 @@
       <c r="CM22">
         <v>0.99730963447052201</v>
       </c>
+      <c r="CN22" s="6">
+        <v>0.99757356935196395</v>
+      </c>
+      <c r="CO22">
+        <v>0.99731967044081904</v>
+      </c>
+      <c r="CP22">
+        <v>0.99716149029605705</v>
+      </c>
+      <c r="CQ22">
+        <v>0.996665493532644</v>
+      </c>
+      <c r="CR22">
+        <v>0.99840858970652901</v>
+      </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7106,8 +7465,23 @@
       <c r="CM23">
         <v>0.99730734269445498</v>
       </c>
+      <c r="CN23" s="6">
+        <v>0.99757165556469896</v>
+      </c>
+      <c r="CO23">
+        <v>0.99731695534252096</v>
+      </c>
+      <c r="CP23">
+        <v>0.99715955693867098</v>
+      </c>
+      <c r="CQ23">
+        <v>0.99666350631405998</v>
+      </c>
+      <c r="CR23">
+        <v>0.99840611591698303</v>
+      </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7349,8 +7723,23 @@
       <c r="CM24">
         <v>0.99730694386223295</v>
       </c>
+      <c r="CN24" s="6">
+        <v>0.99757132161851803</v>
+      </c>
+      <c r="CO24">
+        <v>0.99731648331542899</v>
+      </c>
+      <c r="CP24">
+        <v>0.99715921928016404</v>
+      </c>
+      <c r="CQ24">
+        <v>0.99666315778852199</v>
+      </c>
+      <c r="CR24">
+        <v>0.99840567959219095</v>
+      </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -7592,8 +7981,23 @@
       <c r="CM25">
         <v>0.99730649074718203</v>
       </c>
+      <c r="CN25" s="6">
+        <v>0.99757094188499895</v>
+      </c>
+      <c r="CO25">
+        <v>0.997315947251176</v>
+      </c>
+      <c r="CP25">
+        <v>0.99715883521395898</v>
+      </c>
+      <c r="CQ25">
+        <v>0.996662760815477</v>
+      </c>
+      <c r="CR25">
+        <v>0.99840518179993398</v>
+      </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -7850,8 +8254,23 @@
       <c r="CM26">
         <v>0.99730538441975602</v>
       </c>
+      <c r="CN26" s="6">
+        <v>0.99757001318349603</v>
+      </c>
+      <c r="CO26">
+        <v>0.99731463943545895</v>
+      </c>
+      <c r="CP26">
+        <v>0.99715789540495903</v>
+      </c>
+      <c r="CQ26">
+        <v>0.99666178691677498</v>
+      </c>
+      <c r="CR26">
+        <v>0.998403957121759</v>
+      </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8093,8 +8512,23 @@
       <c r="CM27">
         <v>0.99730494817168003</v>
       </c>
+      <c r="CN27" s="6">
+        <v>0.99756964635787404</v>
+      </c>
+      <c r="CO27">
+        <v>0.99731412418905996</v>
+      </c>
+      <c r="CP27">
+        <v>0.99715752398718605</v>
+      </c>
+      <c r="CQ27">
+        <v>0.99666140102271294</v>
+      </c>
+      <c r="CR27">
+        <v>0.99840347060733903</v>
+      </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8336,8 +8770,23 @@
       <c r="CM28">
         <v>0.99730454214607001</v>
       </c>
+      <c r="CN28" s="6">
+        <v>0.997569304621574</v>
+      </c>
+      <c r="CO28">
+        <v>0.99731364489244201</v>
+      </c>
+      <c r="CP28">
+        <v>0.99715717786592295</v>
+      </c>
+      <c r="CQ28">
+        <v>0.99666104088750096</v>
+      </c>
+      <c r="CR28">
+        <v>0.99840301597820202</v>
+      </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8594,8 +9043,23 @@
       <c r="CM29">
         <v>0.99729878843175601</v>
       </c>
+      <c r="CN29" s="6">
+        <v>0.99756442471429196</v>
+      </c>
+      <c r="CO29">
+        <v>0.997306889389452</v>
+      </c>
+      <c r="CP29">
+        <v>0.99715222306050499</v>
+      </c>
+      <c r="CQ29">
+        <v>0.99665582532749297</v>
+      </c>
+      <c r="CR29">
+        <v>0.99839638935275499</v>
+      </c>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8852,8 +9316,23 @@
       <c r="CM30">
         <v>0.997296880057988</v>
       </c>
+      <c r="CN30" s="6">
+        <v>0.99756278859133096</v>
+      </c>
+      <c r="CO30">
+        <v>0.99730467005546897</v>
+      </c>
+      <c r="CP30">
+        <v>0.99715055607283898</v>
+      </c>
+      <c r="CQ30">
+        <v>0.99665404251051803</v>
+      </c>
+      <c r="CR30">
+        <v>0.99839411860582195</v>
+      </c>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9110,8 +9589,23 @@
       <c r="CM31">
         <v>0.99729490030429402</v>
       </c>
+      <c r="CN31" s="6">
+        <v>0.99756108028972401</v>
+      </c>
+      <c r="CO31">
+        <v>0.99730238393902004</v>
+      </c>
+      <c r="CP31">
+        <v>0.99714881198782102</v>
+      </c>
+      <c r="CQ31">
+        <v>0.99665215992411704</v>
+      </c>
+      <c r="CR31">
+        <v>0.99839172745444804</v>
+      </c>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9368,8 +9862,23 @@
       <c r="CM32">
         <v>0.99729307713079796</v>
       </c>
+      <c r="CN32" s="6">
+        <v>0.997559496003534</v>
+      </c>
+      <c r="CO32">
+        <v>0.997300296825955</v>
+      </c>
+      <c r="CP32">
+        <v>0.99714719094517401</v>
+      </c>
+      <c r="CQ32">
+        <v>0.99665039280495105</v>
+      </c>
+      <c r="CR32">
+        <v>0.99838949579523195</v>
+      </c>
     </row>
-    <row r="33" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9626,8 +10135,23 @@
       <c r="CM33">
         <v>0.99729106000397705</v>
       </c>
+      <c r="CN33" s="6">
+        <v>0.99755772910205598</v>
+      </c>
+      <c r="CO33">
+        <v>0.99729801308590305</v>
+      </c>
+      <c r="CP33">
+        <v>0.99714537855239704</v>
+      </c>
+      <c r="CQ33">
+        <v>0.99664839528996996</v>
+      </c>
+      <c r="CR33">
+        <v>0.99838699718755197</v>
+      </c>
     </row>
-    <row r="34" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9872,8 +10396,23 @@
       <c r="CM34">
         <v>0.99728976546127002</v>
       </c>
+      <c r="CN34" s="6">
+        <v>0.99755658635591904</v>
+      </c>
+      <c r="CO34">
+        <v>0.99729656457911697</v>
+      </c>
+      <c r="CP34">
+        <v>0.99714420359744005</v>
+      </c>
+      <c r="CQ34">
+        <v>0.99664708684561298</v>
+      </c>
+      <c r="CR34">
+        <v>0.99838537959261897</v>
+      </c>
     </row>
-    <row r="35" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10118,8 +10657,23 @@
       <c r="CM35">
         <v>0.99728784124992798</v>
       </c>
+      <c r="CN35" s="6">
+        <v>0.99755487323746495</v>
+      </c>
+      <c r="CO35">
+        <v>0.997294442018547</v>
+      </c>
+      <c r="CP35">
+        <v>0.99714243762056298</v>
+      </c>
+      <c r="CQ35">
+        <v>0.99664509817157299</v>
+      </c>
+      <c r="CR35">
+        <v>0.99838295942784006</v>
+      </c>
     </row>
-    <row r="36" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10376,8 +10930,23 @@
       <c r="CM36">
         <v>0.99728608996956403</v>
       </c>
+      <c r="CN36" s="6">
+        <v>0.99755329667446702</v>
+      </c>
+      <c r="CO36">
+        <v>0.99729254920444999</v>
+      </c>
+      <c r="CP36">
+        <v>0.99714080698388596</v>
+      </c>
+      <c r="CQ36">
+        <v>0.996643235786563</v>
+      </c>
+      <c r="CR36">
+        <v>0.99838074643603503</v>
+      </c>
     </row>
-    <row r="37" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -10634,8 +11203,23 @@
       <c r="CM37">
         <v>0.99728341653441299</v>
       </c>
+      <c r="CN37" s="6">
+        <v>0.99755085073229099</v>
+      </c>
+      <c r="CO37">
+        <v>0.99728975475353399</v>
+      </c>
+      <c r="CP37">
+        <v>0.99713826505028302</v>
+      </c>
+      <c r="CQ37">
+        <v>0.99664027457190196</v>
+      </c>
+      <c r="CR37">
+        <v>0.99837736969752799</v>
+      </c>
     </row>
-    <row r="38" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10892,8 +11476,23 @@
       <c r="CM38">
         <v>0.99728113109618999</v>
       </c>
+      <c r="CN38" s="6">
+        <v>0.99754871147957602</v>
+      </c>
+      <c r="CO38">
+        <v>0.99728749221230395</v>
+      </c>
+      <c r="CP38">
+        <v>0.99713602718460204</v>
+      </c>
+      <c r="CQ38">
+        <v>0.99663759762941295</v>
+      </c>
+      <c r="CR38">
+        <v>0.99837451717921999</v>
+      </c>
     </row>
-    <row r="39" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11150,8 +11749,23 @@
       <c r="CM39">
         <v>0.99728035059815601</v>
       </c>
+      <c r="CN39" s="6">
+        <v>0.99754796791236</v>
+      </c>
+      <c r="CO39">
+        <v>0.99728675556947899</v>
+      </c>
+      <c r="CP39">
+        <v>0.99713524548658705</v>
+      </c>
+      <c r="CQ39">
+        <v>0.99663664428463505</v>
+      </c>
+      <c r="CR39">
+        <v>0.99837355926429805</v>
+      </c>
     </row>
-    <row r="40" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11408,8 +12022,23 @@
       <c r="CM40">
         <v>0.997279486963904</v>
       </c>
+      <c r="CN40" s="6">
+        <v>0.99754713579694199</v>
+      </c>
+      <c r="CO40">
+        <v>0.997285967390941</v>
+      </c>
+      <c r="CP40">
+        <v>0.99713436797535704</v>
+      </c>
+      <c r="CQ40">
+        <v>0.99663556123603103</v>
+      </c>
+      <c r="CR40">
+        <v>0.99837251448926301</v>
+      </c>
     </row>
-    <row r="41" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11651,8 +12280,23 @@
       <c r="CM41">
         <v>0.99727923669654905</v>
       </c>
+      <c r="CN41" s="6">
+        <v>0.99754689262739904</v>
+      </c>
+      <c r="CO41">
+        <v>0.99728574496338795</v>
+      </c>
+      <c r="CP41">
+        <v>0.99713411095300997</v>
+      </c>
+      <c r="CQ41">
+        <v>0.99663524125240699</v>
+      </c>
+      <c r="CR41">
+        <v>0.99837221540837695</v>
+      </c>
     </row>
-    <row r="42" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11894,8 +12538,23 @@
       <c r="CM42">
         <v>0.99727900693308802</v>
       </c>
+      <c r="CN42" s="6">
+        <v>0.99754666850938001</v>
+      </c>
+      <c r="CO42">
+        <v>0.99728554334687702</v>
+      </c>
+      <c r="CP42">
+        <v>0.99713387381861396</v>
+      </c>
+      <c r="CQ42">
+        <v>0.99663494486069004</v>
+      </c>
+      <c r="CR42">
+        <v>0.99837194251656802</v>
+      </c>
     </row>
-    <row r="43" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12152,8 +12811,23 @@
       <c r="CM43">
         <v>0.99727814247688096</v>
       </c>
+      <c r="CN43" s="6">
+        <v>0.99754581716102297</v>
+      </c>
+      <c r="CO43">
+        <v>0.99728480927390495</v>
+      </c>
+      <c r="CP43">
+        <v>0.997132970710219</v>
+      </c>
+      <c r="CQ43">
+        <v>0.99663380522296396</v>
+      </c>
+      <c r="CR43">
+        <v>0.99837093263267096</v>
+      </c>
     </row>
-    <row r="44" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12401,8 +13075,23 @@
       <c r="CM44">
         <v>0.99727737509604097</v>
       </c>
+      <c r="CN44" s="6">
+        <v>0.997545049198997</v>
+      </c>
+      <c r="CO44">
+        <v>0.99728419507317501</v>
+      </c>
+      <c r="CP44">
+        <v>0.99713215261297705</v>
+      </c>
+      <c r="CQ44">
+        <v>0.99663275675535501</v>
+      </c>
+      <c r="CR44">
+        <v>0.99837006372149795</v>
+      </c>
     </row>
-    <row r="45" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -12659,8 +13348,23 @@
       <c r="CM45">
         <v>0.99727624425313699</v>
       </c>
+      <c r="CN45" s="6">
+        <v>0.99754389169218805</v>
+      </c>
+      <c r="CO45">
+        <v>0.99728337109842402</v>
+      </c>
+      <c r="CP45">
+        <v>0.99713091237889495</v>
+      </c>
+      <c r="CQ45">
+        <v>0.99663113394004998</v>
+      </c>
+      <c r="CR45">
+        <v>0.99836884858103703</v>
+      </c>
     </row>
-    <row r="46" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -12917,8 +13621,23 @@
       <c r="CM46">
         <v>0.997275704620602</v>
       </c>
+      <c r="CN46" s="6">
+        <v>0.99754332598900697</v>
+      </c>
+      <c r="CO46">
+        <v>0.997283020779411</v>
+      </c>
+      <c r="CP46">
+        <v>0.99713030262380198</v>
+      </c>
+      <c r="CQ46">
+        <v>0.99663031933009905</v>
+      </c>
+      <c r="CR46">
+        <v>0.99836830567425505</v>
+      </c>
     </row>
-    <row r="47" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13160,8 +13879,23 @@
       <c r="CM47">
         <v>0.99727551356421096</v>
       </c>
+      <c r="CN47" s="6">
+        <v>0.99754312323912997</v>
+      </c>
+      <c r="CO47">
+        <v>0.997282904787126</v>
+      </c>
+      <c r="CP47">
+        <v>0.99713008343307696</v>
+      </c>
+      <c r="CQ47">
+        <v>0.996630023497177</v>
+      </c>
+      <c r="CR47">
+        <v>0.99836812070913095</v>
+      </c>
     </row>
-    <row r="48" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13406,8 +14140,23 @@
       <c r="CM48">
         <v>0.99727535860291405</v>
       </c>
+      <c r="CN48" s="6">
+        <v>0.99754295775524604</v>
+      </c>
+      <c r="CO48">
+        <v>0.99728281412217101</v>
+      </c>
+      <c r="CP48">
+        <v>0.99712990425852099</v>
+      </c>
+      <c r="CQ48">
+        <v>0.996629780426039</v>
+      </c>
+      <c r="CR48">
+        <v>0.99836797383288001</v>
+      </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13664,8 +14413,23 @@
       <c r="CM49">
         <v>0.99727483514434001</v>
       </c>
+      <c r="CN49" s="6">
+        <v>0.99754239114667698</v>
+      </c>
+      <c r="CO49">
+        <v>0.99728253305026004</v>
+      </c>
+      <c r="CP49">
+        <v>0.99712928879623997</v>
+      </c>
+      <c r="CQ49">
+        <v>0.99662893642150296</v>
+      </c>
+      <c r="CR49">
+        <v>0.99836750137855301</v>
+      </c>
     </row>
-    <row r="50" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13922,8 +14686,23 @@
       <c r="CM50">
         <v>0.99727429740612095</v>
       </c>
+      <c r="CN50" s="6">
+        <v>0.99754179482683503</v>
+      </c>
+      <c r="CO50">
+        <v>0.99728229203919905</v>
+      </c>
+      <c r="CP50">
+        <v>0.99712863740395996</v>
+      </c>
+      <c r="CQ50">
+        <v>0.99662802644749604</v>
+      </c>
+      <c r="CR50">
+        <v>0.99836706219025395</v>
+      </c>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -14180,8 +14959,23 @@
       <c r="CM51">
         <v>0.99727379211918399</v>
       </c>
+      <c r="CN51" s="6">
+        <v>0.99754121808094798</v>
+      </c>
+      <c r="CO51">
+        <v>0.99728212125818805</v>
+      </c>
+      <c r="CP51">
+        <v>0.99712800328338402</v>
+      </c>
+      <c r="CQ51">
+        <v>0.99662712194106895</v>
+      </c>
+      <c r="CR51">
+        <v>0.99836670517676296</v>
+      </c>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -14438,8 +15232,23 @@
       <c r="CM52">
         <v>0.997272599758109</v>
       </c>
+      <c r="CN52" s="6">
+        <v>0.99753976188944904</v>
+      </c>
+      <c r="CO52">
+        <v>0.99728204778526197</v>
+      </c>
+      <c r="CP52">
+        <v>0.997126379067797</v>
+      </c>
+      <c r="CQ52">
+        <v>0.99662470068730302</v>
+      </c>
+      <c r="CR52">
+        <v>0.99836620817263999</v>
+      </c>
     </row>
-    <row r="53" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -14684,8 +15493,23 @@
       <c r="CM53">
         <v>0.99727250625571595</v>
       </c>
+      <c r="CN53" s="6">
+        <v>0.997539639315145</v>
+      </c>
+      <c r="CO53">
+        <v>0.99728207145007297</v>
+      </c>
+      <c r="CP53">
+        <v>0.997126240443999</v>
+      </c>
+      <c r="CQ53">
+        <v>0.99662448556209504</v>
+      </c>
+      <c r="CR53">
+        <v>0.99836620103695795</v>
+      </c>
     </row>
-    <row r="54" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -14930,8 +15754,23 @@
       <c r="CM54">
         <v>0.9972724226352</v>
       </c>
+      <c r="CN54" s="6">
+        <v>0.99753952822278502</v>
+      </c>
+      <c r="CO54">
+        <v>0.99728209783226396</v>
+      </c>
+      <c r="CP54">
+        <v>0.99712611449364497</v>
+      </c>
+      <c r="CQ54">
+        <v>0.99662428873650599</v>
+      </c>
+      <c r="CR54">
+        <v>0.99836620041981705</v>
+      </c>
     </row>
-    <row r="55" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -15161,8 +16000,23 @@
       <c r="CM55">
         <v>0.99727166536177703</v>
       </c>
+      <c r="CN55" s="6">
+        <v>0.99753842826237704</v>
+      </c>
+      <c r="CO55">
+        <v>0.99728267242631496</v>
+      </c>
+      <c r="CP55">
+        <v>0.99712484779205701</v>
+      </c>
+      <c r="CQ55">
+        <v>0.99662222337122797</v>
+      </c>
+      <c r="CR55">
+        <v>0.99836657241346605</v>
+      </c>
     </row>
-    <row r="56" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -15392,8 +16246,23 @@
       <c r="CM56">
         <v>0.99727128798813303</v>
       </c>
+      <c r="CN56" s="6">
+        <v>0.99753774909593396</v>
+      </c>
+      <c r="CO56">
+        <v>0.99728343226792404</v>
+      </c>
+      <c r="CP56">
+        <v>0.99712404062307602</v>
+      </c>
+      <c r="CQ56">
+        <v>0.99662079939834902</v>
+      </c>
+      <c r="CR56">
+        <v>0.99836730236938998</v>
+      </c>
     </row>
-    <row r="57" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -15623,8 +16492,23 @@
       <c r="CM57">
         <v>0.99727098895161004</v>
       </c>
+      <c r="CN57" s="6">
+        <v>0.99753682917588005</v>
+      </c>
+      <c r="CO57">
+        <v>0.99728543064922404</v>
+      </c>
+      <c r="CP57">
+        <v>0.99712288842333396</v>
+      </c>
+      <c r="CQ57">
+        <v>0.99661852093291903</v>
+      </c>
+      <c r="CR57">
+        <v>0.998369525169153</v>
+      </c>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -15842,8 +16726,23 @@
       <c r="CM58">
         <v>0.99727098364046995</v>
       </c>
+      <c r="CN58" s="6">
+        <v>0.99753675790593099</v>
+      </c>
+      <c r="CO58">
+        <v>0.99728566784277395</v>
+      </c>
+      <c r="CP58">
+        <v>0.99712279419905503</v>
+      </c>
+      <c r="CQ58">
+        <v>0.99661831497008302</v>
+      </c>
+      <c r="CR58">
+        <v>0.99836980396656305</v>
+      </c>
     </row>
-    <row r="59" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -16060,6 +16959,21 @@
       </c>
       <c r="CM59">
         <v>0.99727098249939805</v>
+      </c>
+      <c r="CN59" s="6">
+        <v>0.99753668161605102</v>
+      </c>
+      <c r="CO59">
+        <v>0.99728594282067695</v>
+      </c>
+      <c r="CP59">
+        <v>0.99712269207614601</v>
+      </c>
+      <c r="CQ59">
+        <v>0.99661808700796395</v>
+      </c>
+      <c r="CR59">
+        <v>0.99837012992555496</v>
       </c>
     </row>
   </sheetData>
